--- a/TestData/Opencart_LoginData.xlsx
+++ b/TestData/Opencart_LoginData.xlsx
@@ -567,9 +567,9 @@
           <t>Valid</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>PASS</t>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
